--- a/myapp/Beban Kerja terhadap Kepuasan Kerja.xlsx
+++ b/myapp/Beban Kerja terhadap Kepuasan Kerja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\DUNIA ARTIKEL PSIKOLOGI.COM\WEBSITE DUNIA ARTIKEL PSIKOLOGI\pengaruh beban kerja terhadap kepuasan kerja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7521792D-C494-4B6C-8911-06FEEFA1C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9BFF11-883E-4D0C-BD38-2E9CB6CD7E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Judul Artikel</t>
   </si>
@@ -88,6 +88,105 @@
   </si>
   <si>
     <t>Jumlah Item Indikator Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>Pengaruh Beban Kerja, Kompensasi, Dan Work Life Balance Terhadap Kepuasan Kerja Karyawan PT. XYZ</t>
+  </si>
+  <si>
+    <t>Muhammad Adri Pramana Indra</t>
+  </si>
+  <si>
+    <t>https://ejournal.upnvj.ac.id/jye/article/view/8791</t>
+  </si>
+  <si>
+    <t>Journal of Young Entrepreneurs</t>
+  </si>
+  <si>
+    <t>Positif, Signifikan</t>
+  </si>
+  <si>
+    <t>Pengaruh Stres Kerja dan Beban Kerja Terhadap Kinerja Karyawan dengan Kepuasan Kerja sebagai Variabel Intervening pada Pegawai Puskesmas Wonoayu</t>
+  </si>
+  <si>
+    <t>Sofiyatuz Zahro, Rifdah Abadiyah</t>
+  </si>
+  <si>
+    <t>https://journal.trunojoyo.ac.id/kompetensi/article/view/24449</t>
+  </si>
+  <si>
+    <t>Competence : Journal of Management Studies</t>
+  </si>
+  <si>
+    <t>PENGARUH BEBAN KERJA DAN KOMPENSASI TERHADAP KEPUASAN KERJA GURU SEKOLAH MENENGAH PERTAMA NEGERI 10 TAMBUN SELATAN</t>
+  </si>
+  <si>
+    <t>Niken Yuliyanti, Hasanuddin Hasanuddin, Jumawan Jumawan</t>
+  </si>
+  <si>
+    <t>https://www.ejurnal.kampusakademik.co.id/index.php/jiem/article/view/4062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurnal Ilmiah Ekonomi Dan Manajemen </t>
+  </si>
+  <si>
+    <t>Pengaruh Beban Kerja dan Lingkungan Kerja Terhadap Kinerja Karyawan Dengan Kepuasan Kerja Sebagai Variabel Mediasi</t>
+  </si>
+  <si>
+    <t>Siti Nurul Fatkah, Teguh Hardi Raharjo</t>
+  </si>
+  <si>
+    <t>https://permana.upstegal.ac.id/index.php/permana/article/view/965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permana: Jurnal Perpajakan, Manajemen, dan Akuntansi </t>
+  </si>
+  <si>
+    <t>Jumlah Sampel</t>
+  </si>
+  <si>
+    <t>Ada Nilai R-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai Q-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai F-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Pengujian Goodness of Fit? SRMR, NFI, GoF, dst</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan HTMT?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Cross Loading?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Fornel Larcker?</t>
+  </si>
+  <si>
+    <t>Variabel yang Menuju ke Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Kompensasi, Worklife Balance</t>
+  </si>
+  <si>
+    <t>Jumlah Variabel yang Menuju ke Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>Nilai R-Squares Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>Stres Kerja, Beban Kerja</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Kompensasi</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Lingkungan Kerja</t>
   </si>
 </sst>
 </file>
@@ -421,30 +520,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1"/>
+    <col min="1" max="1" width="147.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="76" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="43.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="44.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="27.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29" style="1" customWidth="1"/>
+    <col min="17" max="17" width="79.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="51" style="1" customWidth="1"/>
+    <col min="20" max="20" width="38" style="1" customWidth="1"/>
+    <col min="21" max="21" width="51.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="52.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32.140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +591,41 @@
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -518,11 +661,332 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>110</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.84499999999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7D24519B-B82B-4215-9DBD-AD343EF2A485}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3CBFE938-CF54-4745-AC83-127AD548FCFA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6D8AB39F-CD38-42AD-83FC-93FA27767FB8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{748F434B-2BB6-4236-89B5-8A8664F32F49}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CCC61FBB-920D-4C74-B5E7-6BC79DA52BFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
